--- a/webroot/files/tg/4102/Curva3G bbb.xlsx
+++ b/webroot/files/tg/4102/Curva3G bbb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Portal-Web\webroot\files\tg\4102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86AEB7B-FACF-4674-9058-56BB7E2EF2C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5EB711-B1D0-413E-8263-64A447F2DE29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{83AD37E1-F23D-4B7B-A7EB-672069417472}"/>
+    <workbookView xWindow="-24120" yWindow="-2130" windowWidth="24240" windowHeight="13140" xr2:uid="{83AD37E1-F23D-4B7B-A7EB-672069417472}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,9 @@
       <c r="A16" s="2">
         <v>2.17455450477537</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>3.7020319207450074E-2</v>
+      </c>
       <c r="C16" s="2">
         <v>2.172797291042893</v>
       </c>
